--- a/Suivi recherche.xlsx
+++ b/Suivi recherche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\AlgoPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3CF57F-78F0-4C0F-B837-3D138A88102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{ABA412FE-0801-4B54-ACEC-AE6FF7A28A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
   <si>
     <t>QUELLE ACTION ?</t>
   </si>
@@ -337,6 +337,30 @@
   </si>
   <si>
     <t>0 805 29 12 90</t>
+  </si>
+  <si>
+    <t>https://www.e-media-concept.com/offres-emploi-mulhouse-alsace/developpeur-web-front-end/</t>
+  </si>
+  <si>
+    <t>E-Media-Concept</t>
+  </si>
+  <si>
+    <t>Mulhouse</t>
+  </si>
+  <si>
+    <t>28 Rue François Spoerry</t>
+  </si>
+  <si>
+    <t>https://www.e-media-concept.com/</t>
+  </si>
+  <si>
+    <t>03 89 33 42 40</t>
+  </si>
+  <si>
+    <t>Sur Place</t>
+  </si>
+  <si>
+    <t>Ne cherche pas d'employé n'y d'alternant</t>
   </si>
 </sst>
 </file>
@@ -474,7 +498,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -517,6 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -933,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,6 +1526,56 @@
       </c>
       <c r="Q12" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>45183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13">
+        <v>68100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1541,12 +1616,13 @@
     <hyperlink ref="N11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="I12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="N12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{CE57A619-8D11-4E3D-BACF-48B0B0E9B4C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Suivi recherche.xlsx
+++ b/Suivi recherche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\AlgoPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{ABA412FE-0801-4B54-ACEC-AE6FF7A28A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E7F768F4-1060-437C-A706-F42ADB6CC6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>QUELLE ACTION ?</t>
   </si>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t>Ne cherche pas d'employé n'y d'alternant</t>
+  </si>
+  <si>
+    <t>Développeur PHP</t>
+  </si>
+  <si>
+    <t>Dedalus</t>
+  </si>
+  <si>
+    <t>3 Rue de Sarrelouis</t>
+  </si>
+  <si>
+    <t>https://www.dedalus.com/fr/fr/</t>
   </si>
 </sst>
 </file>
@@ -958,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,6 +1588,38 @@
       </c>
       <c r="X13" s="9" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>45183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>67000</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1617,12 +1661,13 @@
     <hyperlink ref="I12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="N12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="I13" r:id="rId12" xr:uid="{CE57A619-8D11-4E3D-BACF-48B0B0E9B4C7}"/>
+    <hyperlink ref="N14" r:id="rId13" xr:uid="{761C8309-02F4-49C5-A3E2-6B931D6F6309}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
